--- a/biology/Zoologie/Dendronotus_regius/Dendronotus_regius.xlsx
+++ b/biology/Zoologie/Dendronotus_regius/Dendronotus_regius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendronotus regius est une espèce de nudibranche de la famille des Dendronotidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale ouest du Pacifique dans une zone comprenant la Malaisie, l'Indonésie et les Philippines.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe sur les sommets ou sur les pentes jusqu'à la zone des 30 m de profondeur.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 3 cm. 
 Le corps de cet animal est allongé et relativement fin, la coloration dominante du corps est translucide pour la base du pied et des excroissances branchues, la face dorsale est de teinte beige à marron-orangé avec des taches brunes à sombres.
@@ -607,7 +625,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Dendronotus est benthique et a un mode de vie plutôt cryptique. Son observation est d'autant délicate qu'il revêt l'apparence 
 du corail dont il se nourrit.
@@ -639,7 +659,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendronotus regius se nourrit principalement d'Alcyonaires ou de gorgones.
 </t>
